--- a/biology/Microbiologie/Thyrophylacidae/Thyrophylacidae.xlsx
+++ b/biology/Microbiologie/Thyrophylacidae/Thyrophylacidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thyrophylacidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l'ordre des Philasterida.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom de la famille vient du genre type Thyrophylax, composé des mots grecs θυρο / thyro, « porte », et φύλαξ / fylax, « gardien ».
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Thyrophylacidae ont une taille large (&gt; 200 µm). Leur forme est ovoïde, comprimée latéralement, avec une suture antérodorsale proéminente et une minuscule projection caudale. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à dire homogène), dense. Leur région buccale est constituée d'une grande cavité buccale profonde avec des cinétides somatiques[note 1] tapissant la paroi droite et un grand polycinétide[note 2] oral 2 tapissant toute la paroi gauche. Leur macronoyau est ellipsoïde à ellipsoïde allongé. On y observe de nombreux  micronoyaux, de multiples vacuoles contractiles et un cytoprocte. Ils sont carnivores vis à vis des autres ciliés[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Thyrophylacidae ont une taille large (&gt; 200 µm). Leur forme est ovoïde, comprimée latéralement, avec une suture antérodorsale proéminente et une minuscule projection caudale. Ils vivent en natation libre. Leur ciliation somatique est holotriche (c. à dire homogène), dense. Leur région buccale est constituée d'une grande cavité buccale profonde avec des cinétides somatiques[note 1] tapissant la paroi droite et un grand polycinétide[note 2] oral 2 tapissant toute la paroi gauche. Leur macronoyau est ellipsoïde à ellipsoïde allongé. On y observe de nombreux  micronoyaux, de multiples vacuoles contractiles et un cytoprocte. Ils sont carnivores vis à vis des autres ciliés.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Thyrophylacidae vivent en eau de mer sous forme d'endocommensaux dans les intestins des échinides. Ils n'ont, jusqu'à présent (2010), été observés que dans l'océan Pacifique[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Thyrophylacidae vivent en eau de mer sous forme d'endocommensaux dans les intestins des échinides. Ils n'ont, jusqu'à présent (2010), été observés que dans l'océan Pacifique.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (2 mars 2024)[2] et Lynn (2010)[1] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (2 mars 2024) et Lynn (2010) :
 Plagiopyliella Poljanskij, 1951
 Espèce type : Plagiopyliella pacifica Poljanskij, 1951
 Thyrophylax Berger, 1961 genre type
@@ -638,9 +658,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Thyrophylacidae Berger in Corliss, 1961[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Thyrophylacidae Berger in Corliss, 1961.
 </t>
         </is>
       </c>
